--- a/spark学习笔记图.xlsx
+++ b/spark学习笔记图.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axing/Desktop/work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axing/Documents/dev/doc/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19520" activeTab="6" xr2:uid="{D0887A55-DE52-DA42-AC8E-B9C4B33FFA11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" activeTab="7" xr2:uid="{D0887A55-DE52-DA42-AC8E-B9C4B33FFA11}"/>
   </bookViews>
   <sheets>
     <sheet name="spark内核架构" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="reduce端OOM和shuffle file notfind" sheetId="5" r:id="rId5"/>
     <sheet name="SparkStreaming逻辑图" sheetId="6" r:id="rId6"/>
     <sheet name="SparkStreaming-kafka Recevier" sheetId="7" r:id="rId7"/>
+    <sheet name="spark Master" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -12564,6 +12565,1654 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C60524D-F970-824C-BFF3-D6F7479F50E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082800" y="393700"/>
+          <a:ext cx="18161000" cy="8255000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED045AE2-5CC8-7F4A-B191-E1E90B669FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3721100" y="1905000"/>
+          <a:ext cx="1574800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Worker</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AEA9412-1E5B-AD4C-BE4F-5731F2F871C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3721100" y="3670300"/>
+          <a:ext cx="1574800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Driver</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DFF404-7162-174B-8992-019B3DCE4DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="5410200"/>
+          <a:ext cx="1574800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Application</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCD299B-FC22-A443-8EAC-8FC652E171F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8623300" y="2501900"/>
+          <a:ext cx="1435100" cy="3213100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D093AB70-A62A-C048-A2A4-A12B8A8E9EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5346700" y="2349500"/>
+          <a:ext cx="3238500" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A012B5F4-8750-AA4E-A797-FAD34CE178D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="2235200"/>
+          <a:ext cx="889000" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+            <a:t>worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>是在启动之后主动向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>注册的</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCFD6FA-6B53-B043-8217-56E99632FD3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5295900" y="4108450"/>
+          <a:ext cx="3327400" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EFB862-95E8-6A48-96D1-D4183560B0C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5270500" y="4152900"/>
+          <a:ext cx="3340100" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40A20C3-2FC6-7B40-8202-268EFE169FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6311900" y="3962400"/>
+          <a:ext cx="635000" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>注册</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BAF080-27E6-3642-88E7-493F049EF0FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="5067300"/>
+          <a:ext cx="584200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>注册</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF1A9EB-6754-9E41-B5B3-B3F8BE2E488E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12458700" y="1905000"/>
+          <a:ext cx="1765300" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>将注册的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>加入到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的内存数据结构中</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF16B955-A068-5340-BA01-D530899B5B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12484100" y="3683000"/>
+          <a:ext cx="1765300" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>将注册的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息存入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的内存数据结构中</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9938668-1674-CE42-8C58-DBDFB8D63019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="5359400"/>
+          <a:ext cx="1765300" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>将注册的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Application</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信息存入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的内存数据结构中</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直线箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EAFE47-5A87-F644-AA62-59EAE6C9E87F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10058400" y="2324100"/>
+          <a:ext cx="2400300" cy="1784350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直线箭头连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5636CC-36A3-2348-B8F2-FB8D14DBC275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="4108450"/>
+          <a:ext cx="2425700" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C17BBA4-874B-6149-876D-1B6516BFB6AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="4108450"/>
+          <a:ext cx="2438400" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6445E2BB-4E2D-7D4D-9AF6-EA5AA9D25713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15684500" y="1993900"/>
+          <a:ext cx="1130300" cy="4241800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>通过持久化引擎将注册的信息持久化起来，例如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>zookeeper</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右大括号 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDAF9ED-A637-6D4D-9BDE-23A72BEF6213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14528800" y="2108200"/>
+          <a:ext cx="1054100" cy="3898900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="圆角矩形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2591E35F-8F6E-D64E-A95A-F2B2BFA46DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18034000" y="3429000"/>
+          <a:ext cx="1676400" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Scheduler</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="右箭头 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83EF4C9-C7BB-FB43-B7B8-3251191E29BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16827500" y="3937000"/>
+          <a:ext cx="1155700" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -12984,7 +14633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B28E68-1A03-C148-862F-6B4EC46B0406}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="75" workbookViewId="0">
       <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
@@ -12994,4 +14643,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E0A6B6-E97F-0948-901B-5419B1438383}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/spark学习笔记图.xlsx
+++ b/spark学习笔记图.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" activeTab="7" xr2:uid="{D0887A55-DE52-DA42-AC8E-B9C4B33FFA11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" firstSheet="1" activeTab="10" xr2:uid="{D0887A55-DE52-DA42-AC8E-B9C4B33FFA11}"/>
   </bookViews>
   <sheets>
     <sheet name="spark内核架构" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="reduce端OOM和shuffle file notfind" sheetId="5" r:id="rId5"/>
     <sheet name="SparkStreaming逻辑图" sheetId="6" r:id="rId6"/>
     <sheet name="SparkStreaming-kafka Recevier" sheetId="7" r:id="rId7"/>
-    <sheet name="spark Master" sheetId="8" r:id="rId8"/>
+    <sheet name="spark Master内部工作分析" sheetId="8" r:id="rId8"/>
+    <sheet name="sparkContext分析" sheetId="9" r:id="rId9"/>
+    <sheet name="工作表2" sheetId="10" r:id="rId10"/>
+    <sheet name="BlockStore" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -80,13 +83,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2632,6 +2636,2019 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08ED3E8-CBB7-7041-9342-B0BA29B67F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="127000"/>
+          <a:ext cx="18110200" cy="8547100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0BCC6F-1491-BB47-95D3-273CFBF6E224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3479800" y="3873500"/>
+          <a:ext cx="1003300" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1800" b="1"/>
+            <a:t>大数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="左大括号 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EE29FB-16DA-4145-911D-00BFC37A93BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622800" y="1930400"/>
+          <a:ext cx="838200" cy="4965700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA860D4-E983-5D46-A044-390FB7E6B1E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="1905000"/>
+          <a:ext cx="2438400" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>Hadoop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>分布式文件系统</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0797FC96-2490-5648-BF5B-770B48D01A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5613400" y="3517900"/>
+          <a:ext cx="2438400" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>java:JUC,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>高并发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>多线程</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74FB447D-59CE-C04F-B15D-0293A05D76D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="4330700"/>
+          <a:ext cx="2438400" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>JVM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>内存模型，垃圾回收</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF395DCA-468A-E94B-A242-2164C2007035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="2667000"/>
+          <a:ext cx="2438400" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>Hadoop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>资源管理器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>Yarn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D570C00D-64C1-304D-8C44-E950757A45C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5664200" y="5105400"/>
+          <a:ext cx="2438400" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>Spark</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>源码分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BD27B0-59BD-D74E-AB09-01D15E2DC8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="5880100"/>
+          <a:ext cx="2438400" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>kafka,hbase...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7AC18B-18B6-C949-B59F-6720A68CD694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5689600" y="6616700"/>
+          <a:ext cx="2438400" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>机器学习</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>算法</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4213AE57-82F3-CD4B-B939-CF196C699006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="419100"/>
+          <a:ext cx="5842000" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>            分布式存储，分布式计算，高并发，多线程，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>JVM</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAFA7F3-FB9C-C540-93F2-A0334C62E63F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4978400" y="5232399"/>
+          <a:ext cx="1828800" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>内部通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>TachyonBlockManager</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进行文件的读写和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>之间的映射关系</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C873E3E0-BECA-864E-A8C3-640710D466F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8216900" y="0"/>
+          <a:ext cx="12623800" cy="7747000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97D43F3-B635-D84E-AC10-C17C5BF2FFA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2311400" y="2717800"/>
+          <a:ext cx="1841500" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BlockStore</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C560BAEB-330F-EC4E-B17D-2041A328332E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15671800" y="4800600"/>
+          <a:ext cx="2286000" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>内部通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>TachyonBlockManager</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进行文件的读写和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>之间的映射关系</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文本框 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A0CFCC-5931-E349-A628-0A288B493B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8280400" y="2705100"/>
+          <a:ext cx="2247900" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>MemoryManager</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的实现类进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>读写，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>StaticMemoryManager</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>UnifiedMemoryManager</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A23528F-498D-CC4C-918B-F745389F7D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8242300" y="660400"/>
+          <a:ext cx="2235200" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部通过DiskBlockManager进行文件的读写和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>之间的映射关系</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="圆角矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B108CF1-3EBA-4A48-BBC3-28B84255FAE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5016500" y="1041400"/>
+          <a:ext cx="1549400" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DiskStore</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="圆角矩形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9834F8EE-988D-1040-8CB8-B3FA3A14C5DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4940300" y="3009900"/>
+          <a:ext cx="1638300" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MemoryStore</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="圆角矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF71104B-ECFA-5744-BBE5-2EC449DCF7F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041900" y="5041900"/>
+          <a:ext cx="1549400" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ExternalBlockStore</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="左大括号 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67842DE1-F05E-574C-B391-D9254C13E4A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="1028700"/>
+          <a:ext cx="723900" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="右箭头 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4003BA-18A2-C849-A3F4-8180AC35BF8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14008100" y="1333500"/>
+          <a:ext cx="1701800" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右箭头 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30761E6D-627F-0149-859A-E0E0841664E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14008100" y="3276600"/>
+          <a:ext cx="1701800" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="右箭头 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1B380A-F87E-B648-A187-70B7F46B4C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14008100" y="5359400"/>
+          <a:ext cx="1701800" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4582,7 +6599,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-Hans" sz="1800">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Executor</a:t>
@@ -4590,7 +6607,7 @@
           <a:r>
             <a:rPr lang="zh-Hans" altLang="en-US" sz="1800">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:rPr>
             <a:t>：</a:t>
@@ -4598,7 +6615,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-Hans" sz="1800">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Executor</a:t>
@@ -4606,7 +6623,7 @@
           <a:r>
             <a:rPr lang="zh-Hans" altLang="en-US" sz="1800">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:rPr>
             <a:t>是真正负责</a:t>
@@ -4614,7 +6631,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-Hans" sz="1800">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Task</a:t>
@@ -4622,7 +6639,7 @@
           <a:r>
             <a:rPr lang="zh-Hans" altLang="en-US" sz="1800">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:rPr>
             <a:t>计算的，它在实例化的时候会实例化一个线程池来准备</a:t>
@@ -4630,7 +6647,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-Hans" sz="1800">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Task</a:t>
@@ -4638,14 +6655,14 @@
           <a:r>
             <a:rPr lang="zh-Hans" altLang="en-US" sz="1800">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:rPr>
             <a:t>的计算；</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1800">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -14199,6 +16216,1489 @@
           <a:ext cx="1155700" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B2DD15-2E07-CB4C-89BD-FE644B5BA451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="596900"/>
+          <a:ext cx="19735800" cy="8216900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B29DB8-2D72-EA4F-93F0-985DE5775DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="4152900"/>
+          <a:ext cx="2184400" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SparkContext</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E5EF1F-BFB2-B641-AA7B-B46ABB1DFC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5930900" y="1968500"/>
+          <a:ext cx="2184400" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DAGScheduler</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E033E1-FB15-0F42-BABA-BCEBB5A7C0B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="4114800"/>
+          <a:ext cx="2184400" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TaskScheduler</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40449969-01A9-4349-A951-DEDB85E4068D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="6362700"/>
+          <a:ext cx="2133600" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ScheduleBackend</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="左大括号 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22B59B8-4E5F-3944-8F7F-49E75028EC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4559300" y="1981200"/>
+          <a:ext cx="977900" cy="5207000"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2AD1314-1F9C-4E4D-B1E8-4EBDC1A734FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9207500" y="4114800"/>
+          <a:ext cx="2184400" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TaskSchedulerImpl.start()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD62D5A-2C83-5844-A75C-9C01C50C0F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="4102100"/>
+          <a:ext cx="2184400" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SparkDeploySchedulerBackend.start()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E00982-D067-734E-8D02-BE49B0263804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15290800" y="4089400"/>
+          <a:ext cx="1638300" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AppClient.start()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160C03C3-31FA-954E-814F-41FE3B0E3DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17691100" y="4076700"/>
+          <a:ext cx="1638300" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ClientEndpoint</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A859D31-70D1-C441-9F96-E60F36723C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17526000" y="5956300"/>
+          <a:ext cx="1638300" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA87187-BB49-FA45-B494-006CF82B04BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17995900" y="5283200"/>
+          <a:ext cx="1765300" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>注册应用程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A281F51-9E1A-C942-9D4F-7D970817D1AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13665200" y="5854700"/>
+          <a:ext cx="2247900" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>应用程序注册完成后</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>发消息启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Executor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="右箭头 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4DD814-8E64-B04F-A382-451CD6F76E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8089900" y="4457700"/>
+          <a:ext cx="1130300" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="右箭头 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F43240-85D8-9B43-8AD1-4E9997C19640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="4445000"/>
+          <a:ext cx="977900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="右箭头 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B3826C-22AF-F941-A4B2-9D793365018E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14541500" y="4445000"/>
+          <a:ext cx="736600" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="右箭头 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C914A6-EF26-D64D-92C2-2536B92E8532}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16967200" y="4368800"/>
+          <a:ext cx="723900" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="下箭头 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44937A9A-9364-7640-A6E5-78FA39BF95E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17881600" y="4914900"/>
+          <a:ext cx="152400" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="左箭头 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2165816F-E2FA-8C44-9566-2B3A56CBCC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15875000" y="6273800"/>
+          <a:ext cx="1638300" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -14543,6 +18043,179 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78D37DF-5ECA-4442-BF76-32634C73EC71}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F546BC-66C4-124B-824E-940CBC738E9D}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A263554-E0B2-8746-A3D8-85114918294D}">
   <dimension ref="Y8"/>
@@ -14568,8 +18241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859B1E30-7AE1-6246-AB68-C4F00DD178A3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14584,8 +18257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A1A7DA-26AD-BF43-99EC-4B5D281AA9C1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14649,7 +18322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E0A6B6-E97F-0948-901B-5419B1438383}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -14659,4 +18332,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01AEB95-4E8F-7641-8873-42EEE4DDC1E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/spark学习笔记图.xlsx
+++ b/spark学习笔记图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axing/Documents/dev/doc/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA10244-7F1A-E944-8619-27C2EB5B75B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F2657C-EF6C-984D-9967-5F77CD5DC3AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="33600" windowHeight="19520" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="460" windowWidth="33600" windowHeight="19520" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spark内核架构" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="SparkStreaming-kafka Recevier" sheetId="7" r:id="rId7"/>
     <sheet name="spark Master内部工作分析" sheetId="8" r:id="rId8"/>
     <sheet name="sparkContext分析" sheetId="9" r:id="rId9"/>
-    <sheet name="工作表2" sheetId="10" r:id="rId10"/>
-    <sheet name="BlockStore" sheetId="11" r:id="rId11"/>
-    <sheet name="spark静态内存管理" sheetId="12" r:id="rId12"/>
-    <sheet name="spark动态内存管理" sheetId="13" r:id="rId13"/>
+    <sheet name="BlockStore" sheetId="11" r:id="rId10"/>
+    <sheet name="spark静态内存管理" sheetId="12" r:id="rId11"/>
+    <sheet name="spark统一内存管理" sheetId="14" r:id="rId12"/>
+    <sheet name="工作表2" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2043,782 +2043,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1346200" y="127000"/>
-          <a:ext cx="17551400" cy="10147300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3378200" y="4597400"/>
-          <a:ext cx="977900" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1800" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1800" b="1"/>
-            <a:t>大数据</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="左大括号 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4495800" y="2273300"/>
-          <a:ext cx="812800" cy="5880100"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文本框 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5448300" y="2247900"/>
-          <a:ext cx="2362200" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
-            <a:t>Hadoop分布式文件系统</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="文本框 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5461000" y="4165600"/>
-          <a:ext cx="2362200" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
-            <a:t> java:JUC,高并发,多线程</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="文本框 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5499100" y="5130800"/>
-          <a:ext cx="2362200" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
-            <a:t> JVM内存模型，垃圾回收</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="文本框 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5448300" y="3162300"/>
-          <a:ext cx="2362200" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
-            <a:t>Hadoop资源管理器Yarn</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文本框 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5511800" y="6057900"/>
-          <a:ext cx="2362200" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
-            <a:t>          Spark源码分析</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="文本框 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5524500" y="6946900"/>
-          <a:ext cx="2362200" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
-            <a:t> kafka,hbase...</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="文本框 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5537200" y="7835900"/>
-          <a:ext cx="2362200" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>机器学习,算法</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="文本框 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3327400" y="495300"/>
-          <a:ext cx="5664200" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
-            <a:t>            分布式存储，分布式计算，高并发，多线程，JVM</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -3977,7 +3201,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5973,6 +5197,2710 @@
             <a:t>50%</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9865C8-9CCE-8842-A71B-477F8FEF91E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13081000" cy="9461500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E7145C-6145-E142-A68D-6B1861F97334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4032250" y="1047749"/>
+          <a:ext cx="1344083" cy="309034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>统一内存管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>堆内</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>645583</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右大括号 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E2B59D-FBDD-5E4F-B2C4-55B592900A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6233583" y="1464734"/>
+          <a:ext cx="306916" cy="2779182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右大括号 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E010C58A-8CAC-F946-B885-544DDF82619B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6244167" y="4362450"/>
+          <a:ext cx="275167" cy="1507067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右大括号 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5882B9A7-4A3A-0D45-A2C6-1CF75DC4067C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6254751" y="5956300"/>
+          <a:ext cx="190500" cy="567266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266626C0-42D7-A643-A569-F7C2EDFDB7CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572249" y="2465916"/>
+          <a:ext cx="3979334" cy="867833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>统一内存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Storage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Execution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>共用区域</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en" sz="1100"/>
+            <a:t>由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
+            <a:t>spark.storage.memoryFraction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en" sz="1100"/>
+            <a:t>控制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>占用系统内存的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>60%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEA0E8C-31E0-4A44-BB6C-0823B4BD57C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6519333" y="4720165"/>
+          <a:ext cx="4116916" cy="698501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用于存储用户定义的数据结构以及</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>spark</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的元数据信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>默认占系统内存的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>40%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB610D7-7CC3-B542-A50D-6E26BA4C1BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6508750" y="6000750"/>
+          <a:ext cx="3270250" cy="423334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统预留内存，默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>300M</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，作用于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Other</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>相同</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>232830</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137581</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093E6D52-D137-8344-895C-9968672DD05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="931330" y="4330700"/>
+          <a:ext cx="2000251" cy="662517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>这一块内存的大小由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
+            <a:t>spark.shuffle.memoryFraction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>控制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算公式：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>20%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>20%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>518582</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文本框 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D986AAC9-6603-DA45-B0FF-876F95537062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="984249" y="8972550"/>
+          <a:ext cx="10011833" cy="480484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t> 静态内存管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>——</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>堆外  只有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>storage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>Execution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>区域 各占</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>50%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>582083</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D58E69-ADF4-AC49-AAEA-446848237724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3450167" y="1428750"/>
+          <a:ext cx="2719916" cy="5027083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA694DEA-95FE-0246-98C1-41DBEB5874C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="1481667"/>
+          <a:ext cx="2624667" cy="2719916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05E39BA-D819-C145-B50B-F64816BCDB8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492501" y="4275667"/>
+          <a:ext cx="2645833" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>                        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>Other</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3E8189-1B29-8942-94A7-08EFC59DE5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="5894917"/>
+          <a:ext cx="2645833" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>System</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>Reserved</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88F119A-96A8-314C-8647-006BC9F55ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3545417" y="1555750"/>
+          <a:ext cx="2518834" cy="1259417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>               </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>Storage</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480483</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DC6215-2D3F-FA47-97F2-5A7D5E413227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3549649" y="2914650"/>
+          <a:ext cx="2518834" cy="1259417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>Execution</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直线箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FB1616-2D0F-E649-9280-D5708445F12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3788833" y="2550583"/>
+          <a:ext cx="1" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直线箭头连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327869C9-42D5-1049-8CB8-AE902AA54D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3958167" y="2540000"/>
+          <a:ext cx="0" cy="486833"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>539751</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="文本框 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6002C0-6403-1443-A07D-D7D74530C0D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="148167" y="1799166"/>
+          <a:ext cx="2487084" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用于缓存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BroadCast</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据，由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
+            <a:t>spark.storage.memoryFraction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>控制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算公式：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Usable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>60%*50%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>141816</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="文本框 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F2E267-DD54-9149-A802-80F110068B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="141816" y="3136899"/>
+          <a:ext cx="2556933" cy="778933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用于缓存执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>shuffle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>过程中产生的中间数据，由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
+            <a:t>spark.storage.memoryFraction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>控制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算公式：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Usable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>60%*50%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="文本框 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E3FC54-7806-054C-A111-1E7335582706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4021667" y="2709334"/>
+          <a:ext cx="1037166" cy="232834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>动态占用机制</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="右箭头 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F5ABEE-116D-DD49-8E3A-A7416EFD9BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2645833" y="2106083"/>
+          <a:ext cx="931334" cy="158750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="右箭头 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738C18A1-E3A8-EC46-AC65-36E5C122B2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2730500" y="3503083"/>
+          <a:ext cx="825500" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="右大括号 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FFE853C-A7C9-2341-8B4E-6AE641C4556E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10710333" y="1291167"/>
+          <a:ext cx="635000" cy="4466166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243418</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="文本框 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F96C86-4DA0-C74B-BDD7-368C898E9EA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11419418" y="3227917"/>
+          <a:ext cx="1375832" cy="582084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>  可用内存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1346200" y="127000"/>
+          <a:ext cx="17551400" cy="10147300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3378200" y="4597400"/>
+          <a:ext cx="977900" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1800" b="1"/>
+            <a:t>大数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="左大括号 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="2273300"/>
+          <a:ext cx="812800" cy="5880100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="2247900"/>
+          <a:ext cx="2362200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
+            <a:t>Hadoop分布式文件系统</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5461000" y="4165600"/>
+          <a:ext cx="2362200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
+            <a:t> java:JUC,高并发,多线程</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="5130800"/>
+          <a:ext cx="2362200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
+            <a:t> JVM内存模型，垃圾回收</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="3162300"/>
+          <a:ext cx="2362200" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
+            <a:t>Hadoop资源管理器Yarn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5511800" y="6057900"/>
+          <a:ext cx="2362200" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
+            <a:t>          Spark源码分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="6946900"/>
+          <a:ext cx="2362200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
+            <a:t> kafka,hbase...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537200" y="7835900"/>
+          <a:ext cx="2362200" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>机器学习,算法</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="495300"/>
+          <a:ext cx="5664200" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
+            <a:t>            分布式存储，分布式计算，高并发，多线程，JVM</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18192,22 +20120,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -18364,8 +20276,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291121A6-A7AD-3A44-BD28-B662914675B0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -18381,17 +20309,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE085FED-ECB6-0640-BE74-AA18F6ACE87E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/spark学习笔记图.xlsx
+++ b/spark学习笔记图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axing/Documents/dev/doc/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F2657C-EF6C-984D-9967-5F77CD5DC3AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D53B62-59B1-D14C-B8B5-C837F0F2AE77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="460" windowWidth="33600" windowHeight="19520" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spark内核架构" sheetId="1" r:id="rId1"/>
@@ -5209,13 +5209,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
@@ -5269,13 +5269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>31749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>486833</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>137583</xdr:rowOff>
@@ -5359,13 +5359,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>645583</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>42334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>253999</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>179916</xdr:rowOff>
@@ -5417,13 +5417,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>656167</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>232834</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>179917</xdr:rowOff>
@@ -5475,13 +5475,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>158751</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
@@ -5533,13 +5533,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>52916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>116416</xdr:rowOff>
@@ -5624,7 +5624,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
-            <a:t>spark.storage.memoryFraction</a:t>
+            <a:t>spark.memory.fraction</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en" sz="1100"/>
@@ -5654,13 +5654,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>232833</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>158749</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -5751,13 +5751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
@@ -5837,23 +5837,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>232830</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>137581</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="文本框 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093E6D52-D137-8344-895C-9968672DD05A}"/>
+        <xdr:cNvPr id="24" name="文本框 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D986AAC9-6603-DA45-B0FF-876F95537062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5861,8 +5861,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="931330" y="4330700"/>
-          <a:ext cx="2000251" cy="662517"/>
+          <a:off x="1418166" y="7620001"/>
+          <a:ext cx="10011833" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5897,38 +5897,41 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>这一块内存的大小由</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
-            <a:t>spark.shuffle.memoryFraction</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>控制</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>计算公式：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>20%</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>20%</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>统一内存管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>——</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>堆外  只有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>storage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>Execution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>区域 各占</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>50%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>  可动态占用</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5936,23 +5939,577 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>518582</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582083</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="文本框 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D986AAC9-6603-DA45-B0FF-876F95537062}"/>
+        <xdr:cNvPr id="25" name="矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D58E69-ADF4-AC49-AAEA-446848237724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3450167" y="1428750"/>
+          <a:ext cx="2719916" cy="5027083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA694DEA-95FE-0246-98C1-41DBEB5874C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="1481667"/>
+          <a:ext cx="2624667" cy="2719916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05E39BA-D819-C145-B50B-F64816BCDB8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492501" y="4275667"/>
+          <a:ext cx="2645833" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>                        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>Other</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3E8189-1B29-8942-94A7-08EFC59DE5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="5894917"/>
+          <a:ext cx="2645833" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>System</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>Reserved</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88F119A-96A8-314C-8647-006BC9F55ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3545417" y="1555750"/>
+          <a:ext cx="2518834" cy="1259417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>               </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>Storage</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480483</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DC6215-2D3F-FA47-97F2-5A7D5E413227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3549649" y="2914650"/>
+          <a:ext cx="2518834" cy="1259417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>Execution</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直线箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FB1616-2D0F-E649-9280-D5708445F12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3788833" y="2550583"/>
+          <a:ext cx="1" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直线箭头连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327869C9-42D5-1049-8CB8-AE902AA54D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3958167" y="2540000"/>
+          <a:ext cx="0" cy="486833"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539751</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="文本框 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6002C0-6403-1443-A07D-D7D74530C0D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5960,8 +6517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="984249" y="8972550"/>
-          <a:ext cx="10011833" cy="480484"/>
+          <a:off x="148167" y="1799166"/>
+          <a:ext cx="2487084" cy="698500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5996,38 +6553,54 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
-            <a:t> 静态内存管理</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
-            <a:t>——</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
-            <a:t>堆外  只有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
-            <a:t>storage</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用于缓存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>RDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>和</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
-            <a:t>Execution</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
-            <a:t>区域 各占</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
-            <a:t>50%</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BroadCast</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据，由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
+            <a:t>spark.memory.storageFraction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>控制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计算公式：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Usable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>60%*50%</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6035,577 +6608,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>656167</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>582083</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141816</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="矩形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D58E69-ADF4-AC49-AAEA-446848237724}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3450167" y="1428750"/>
-          <a:ext cx="2719916" cy="5027083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>74084</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>529167</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="矩形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA694DEA-95FE-0246-98C1-41DBEB5874C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3492500" y="1481667"/>
-          <a:ext cx="2624667" cy="2719916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>550334</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="矩形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05E39BA-D819-C145-B50B-F64816BCDB8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3492501" y="4275667"/>
-          <a:ext cx="2645833" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>                        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>Other</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="矩形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3E8189-1B29-8942-94A7-08EFC59DE5BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3492500" y="5894917"/>
-          <a:ext cx="2645833" cy="539750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>                 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-            <a:t>         </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>System</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>Reserved</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>52917</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="矩形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88F119A-96A8-314C-8647-006BC9F55ACD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3545417" y="1555750"/>
-          <a:ext cx="2518834" cy="1259417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>               </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>                       </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>Storage</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99483</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>480483</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="矩形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DC6215-2D3F-FA47-97F2-5A7D5E413227}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3549649" y="2914650"/>
-          <a:ext cx="2518834" cy="1259417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>               </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>Execution</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>296334</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直线箭头连接符 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83FB1616-2D0F-E649-9280-D5708445F12C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3788833" y="2550583"/>
-          <a:ext cx="1" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>465667</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>465667</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直线箭头连接符 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327869C9-42D5-1049-8CB8-AE902AA54D59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3958167" y="2540000"/>
-          <a:ext cx="0" cy="486833"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>148167</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539751</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="文本框 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6002C0-6403-1443-A07D-D7D74530C0D6}"/>
+        <xdr:cNvPr id="42" name="文本框 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F2E267-DD54-9149-A802-80F110068B41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6613,8 +6632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="148167" y="1799166"/>
-          <a:ext cx="2487084" cy="698500"/>
+          <a:off x="1538816" y="3136899"/>
+          <a:ext cx="2631017" cy="905934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6650,27 +6669,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>用于缓存</a:t>
+            <a:t>用于缓存执行</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>RDD</a:t>
+            <a:t>shuffle</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>BroadCast</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>数据，由</a:t>
+            <a:t>过程中产生的中间数据，由</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
-            <a:t>spark.storage.memoryFraction</a:t>
+            <a:t>spark.memory.storageFraction</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -6682,7 +6693,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>计算公式：</a:t>
+            <a:t>此值越高则用于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Execution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的内存就越小计算公式：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -6704,23 +6723,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>141816</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>120649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>603249</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="文本框 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F2E267-DD54-9149-A802-80F110068B41}"/>
+        <xdr:cNvPr id="43" name="文本框 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E3FC54-7806-054C-A111-1E7335582706}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6728,8 +6747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="141816" y="3136899"/>
-          <a:ext cx="2556933" cy="778933"/>
+          <a:off x="4021667" y="2709334"/>
+          <a:ext cx="1037166" cy="232834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6765,45 +6784,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>用于缓存执行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>shuffle</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>过程中产生的中间数据，由</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100"/>
-            <a:t>spark.storage.memoryFraction</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>控制</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>计算公式：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Usable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>60%*50%</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>动态占用机制</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6812,22 +6794,200 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>529167</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="文本框 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E3FC54-7806-054C-A111-1E7335582706}"/>
+        <xdr:cNvPr id="44" name="右箭头 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F5ABEE-116D-DD49-8E3A-A7416EFD9BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2645833" y="2106083"/>
+          <a:ext cx="931334" cy="158750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="右箭头 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738C18A1-E3A8-EC46-AC65-36E5C122B2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2730500" y="3503083"/>
+          <a:ext cx="825500" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="右大括号 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FFE853C-A7C9-2341-8B4E-6AE641C4556E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10710333" y="1291167"/>
+          <a:ext cx="635000" cy="4466166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>243418</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="文本框 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F96C86-4DA0-C74B-BDD7-368C898E9EA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6835,8 +6995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4021667" y="2709334"/>
-          <a:ext cx="1037166" cy="232834"/>
+          <a:off x="11419418" y="3227917"/>
+          <a:ext cx="1375832" cy="582084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6870,254 +7030,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>动态占用机制</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="右箭头 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F5ABEE-116D-DD49-8E3A-A7416EFD9BC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2645833" y="2106083"/>
-          <a:ext cx="931334" cy="158750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="右箭头 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738C18A1-E3A8-EC46-AC65-36E5C122B2C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2730500" y="3503083"/>
-          <a:ext cx="825500" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>232833</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="右大括号 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FFE853C-A7C9-2341-8B4E-6AE641C4556E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10710333" y="1291167"/>
-          <a:ext cx="635000" cy="4466166"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>243418</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="文本框 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F96C86-4DA0-C74B-BDD7-368C898E9EA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11419418" y="3227917"/>
-          <a:ext cx="1375832" cy="582084"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
@@ -7125,6 +7037,11 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>  可用内存</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:Usable</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20280,7 +20197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -20296,8 +20213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291121A6-A7AD-3A44-BD28-B662914675B0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>

--- a/spark学习笔记图.xlsx
+++ b/spark学习笔记图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axing/Documents/dev/doc/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D53B62-59B1-D14C-B8B5-C837F0F2AE77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A0A50C-F276-AD4D-B6B7-44B33657DE93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5844,9 +5844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>52918</xdr:rowOff>
+      <xdr:colOff>433917</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5862,7 +5862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1418166" y="7620001"/>
-          <a:ext cx="10011833" cy="476250"/>
+          <a:ext cx="10191751" cy="1195916"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5931,6 +5931,62 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
             <a:t>  可动态占用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>执行内存的空间被对方占用后，可让对方将占用的部分转存到硬盘，然后</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>归还</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>借用的空间</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>存储内存的空间被对方占用后，无法让对方</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>归还</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>，因为需要考虑 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>Shuffle </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>过程中的很多因素，实现起来较为复杂</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20213,7 +20269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291121A6-A7AD-3A44-BD28-B662914675B0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/spark学习笔记图.xlsx
+++ b/spark学习笔记图.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axing/Documents/dev/doc/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A0A50C-F276-AD4D-B6B7-44B33657DE93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995FFFBF-F6C8-744C-B230-023A4B549027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spark内核架构" sheetId="1" r:id="rId1"/>
@@ -11153,10 +11153,24 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1600" b="1"/>
-            <a:t>CoarseGrainedExecutorbackend</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:rPr lang="en" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CoarseGrainedshedulerBackend</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16230,10 +16244,10 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620569</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16248,8 +16262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810000" y="2108200"/>
-          <a:ext cx="3060700" cy="1600200"/>
+          <a:off x="3380509" y="1794164"/>
+          <a:ext cx="3474605" cy="1554018"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -20253,7 +20267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -20269,7 +20283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291121A6-A7AD-3A44-BD28-B662914675B0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -20338,8 +20352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -20387,7 +20401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="88" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
